--- a/tf_figure/resbiomass3.xlsx
+++ b/tf_figure/resbiomass3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>666.6458363318816</v>
+        <v>970.6406296771029</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.963227987289429e-06</v>
+        <v>9.334665264759678e-06</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>666.6458368957473</v>
+        <v>970.6407501315801</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-410193.0157435904</v>
+        <v>455.7130366554979</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.993030309677124e-07</v>
+        <v>134.7937051844478</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-114927.8605078473</v>
+        <v>958.4129725164635</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3842143.068510268</v>
+        <v>4294.690954593097</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4663195.745832909</v>
+        <v>4353.905798133535</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>821052.6773226401</v>
+        <v>59.21994840539264</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-410193.0157435904</v>
+        <v>455.7130366554979</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2962694.053946587</v>
+        <v>1735.674003548271</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2962694.053946591</v>
+        <v>1735.674003548256</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
     </row>
     <row r="16">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3929704.601874485</v>
+        <v>3442.584583466633</v>
       </c>
     </row>
     <row r="18">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1885778.054186025</v>
+        <v>1575.96449079617</v>
       </c>
     </row>
     <row r="19">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1885778.042487358</v>
+        <v>601.8693201806864</v>
       </c>
     </row>
     <row r="20">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1885778.036449871</v>
+        <v>601.9332253841462</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1885778.05413131</v>
+        <v>864.0336374987708</v>
       </c>
     </row>
     <row r="22">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1885778.05280756</v>
+        <v>-8.045133591585909</v>
       </c>
     </row>
     <row r="23">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2743426.490735842</v>
+        <v>1429.056551127348</v>
       </c>
     </row>
     <row r="24">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5322845.75149874</v>
+        <v>3027.027145746856</v>
       </c>
     </row>
     <row r="25">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5322845.751460575</v>
+        <v>3027.040752149937</v>
       </c>
     </row>
     <row r="26">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3072056.163809523</v>
+        <v>2614.984676344336</v>
       </c>
     </row>
     <row r="27">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4120026.545807018</v>
+        <v>4717.0552968503</v>
       </c>
     </row>
     <row r="28">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>190321.9439323554</v>
+        <v>1274.456508308242</v>
       </c>
     </row>
     <row r="29">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-114261.2019141638</v>
+        <v>1940.934472730757</v>
       </c>
     </row>
     <row r="30">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-114261.2019141628</v>
+        <v>1940.934472730753</v>
       </c>
     </row>
     <row r="31">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>821719.335920088</v>
+        <v>1041.741013699132</v>
       </c>
     </row>
     <row r="32">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-935980.5378351859</v>
+        <v>899.1920300553547</v>
       </c>
     </row>
     <row r="33">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-467990.268918457</v>
+        <v>449.5974261006277</v>
       </c>
     </row>
     <row r="34">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-467990.268915243</v>
+        <v>449.5970095274779</v>
       </c>
     </row>
     <row r="35">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467990.2689152509</v>
+        <v>-449.5970095274843</v>
       </c>
     </row>
     <row r="36">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>666.6458354573697</v>
+        <v>970.6460217163608</v>
       </c>
     </row>
     <row r="37">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0.0001047667137754615</v>
       </c>
     </row>
     <row r="39">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.276518363164914e-09</v>
+        <v>7.782459018832535e-13</v>
       </c>
     </row>
     <row r="40">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.276518363164914e-09</v>
+        <v>7.782459018832116e-13</v>
       </c>
     </row>
     <row r="41">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0001308973878622055</v>
+        <v>0.001781862487860053</v>
       </c>
     </row>
     <row r="42">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8066272.24219642</v>
+        <v>4456.091802281447</v>
       </c>
     </row>
     <row r="43">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6114996.780948902</v>
+        <v>5020.036143597189</v>
       </c>
     </row>
     <row r="44">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1289709.630019289</v>
+        <v>1266.325959851616</v>
       </c>
     </row>
     <row r="45">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2579456.508704094</v>
+        <v>1391.299228444562</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4213050.446746558</v>
+        <v>4328.932433333747</v>
       </c>
     </row>
     <row r="47">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4344446.25556786</v>
+        <v>2090.961419469004</v>
       </c>
     </row>
     <row r="48">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3797492.869150598</v>
+        <v>2617.676196995816</v>
       </c>
     </row>
     <row r="49">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1197667.088752836</v>
+        <v>980.2890653050504</v>
       </c>
     </row>
     <row r="50">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2962694.053946587</v>
+        <v>1735.685493484945</v>
       </c>
     </row>
     <row r="51">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1028129.615402317</v>
+        <v>224.004180234221</v>
       </c>
     </row>
     <row r="52">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.003607587888836861</v>
+        <v>-0.0192316704442419</v>
       </c>
     </row>
     <row r="53">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.276536311147026e-09</v>
+        <v>7.782359808540506e-13</v>
       </c>
     </row>
     <row r="54">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.271608238485588e-09</v>
+        <v>7.783395206162432e-13</v>
       </c>
     </row>
     <row r="55">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.00723952054977417</v>
+        <v>0.02497779730765615</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.007270979695022106</v>
+        <v>0.02126317527745414</v>
       </c>
     </row>
     <row r="57">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1.456588506698608e-06</v>
+        <v>0.0006825220066275506</v>
       </c>
     </row>
     <row r="58">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.02373216301202774</v>
+        <v>0.02679586302701864</v>
       </c>
     </row>
     <row r="59">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.276447482606133e-09</v>
+        <v>7.78220937688289e-13</v>
       </c>
     </row>
     <row r="60">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-4.498288035392761e-06</v>
+        <v>-0.008279891248548665</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.01453886181116104</v>
+        <v>0.007896243709637929</v>
       </c>
     </row>
     <row r="62">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.01453162543475628</v>
+        <v>0.006552318355716125</v>
       </c>
     </row>
     <row r="63">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-4.587695002555847e-06</v>
+        <v>592.1380345807497</v>
       </c>
     </row>
     <row r="64">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.757685095071793e-05</v>
+        <v>-571.7143544360897</v>
       </c>
     </row>
     <row r="65">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.369115183104456e-08</v>
+        <v>0.0004682817107758352</v>
       </c>
     </row>
     <row r="66">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2579419.389908405</v>
+        <v>1597.571027896289</v>
       </c>
     </row>
     <row r="67">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5.613641076080753e-11</v>
+        <v>0.001464666885745551</v>
       </c>
     </row>
     <row r="68">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.276352817692494e-09</v>
+        <v>7.781633294715217e-13</v>
       </c>
     </row>
     <row r="69">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.46459094541288e-06</v>
+        <v>5.84750404914746e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-9.359791874885559e-07</v>
+        <v>0.001343843840004411</v>
       </c>
     </row>
     <row r="71">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01453976612538099</v>
+        <v>-0.02612385736756551</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3.276143729942927e-09</v>
+        <v>7.780922288163566e-13</v>
       </c>
     </row>
     <row r="73">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.00732223317027092</v>
+        <v>0.008644301208278193</v>
       </c>
     </row>
     <row r="74">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.715364098548889e-05</v>
+        <v>0.001239623282344837</v>
       </c>
     </row>
     <row r="75">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.007328544743359089</v>
+        <v>-0.003087881402279891</v>
       </c>
     </row>
     <row r="76">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.276388182424063e-09</v>
+        <v>7.781878988719788e-13</v>
       </c>
     </row>
     <row r="77">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.003644935786724091</v>
+        <v>-341.23291015625</v>
       </c>
     </row>
     <row r="78">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1.411512494087219e-05</v>
+        <v>-0.002252900890653109</v>
       </c>
     </row>
     <row r="79">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.305291561890458e-07</v>
+        <v>0.002481398253023183</v>
       </c>
     </row>
     <row r="80">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-4.842877388000488e-07</v>
+        <v>-0.0004279551239960711</v>
       </c>
     </row>
     <row r="81">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.328997313976288e-06</v>
+        <v>0.0007301795494640828</v>
       </c>
     </row>
     <row r="82">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1934564.445163639</v>
+        <v>-1198.396815080749</v>
       </c>
     </row>
     <row r="83">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>644854.8150526197</v>
+        <v>399.4694512894766</v>
       </c>
     </row>
     <row r="84">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.559274435043335e-06</v>
+        <v>0.0004783948638760194</v>
       </c>
     </row>
     <row r="85">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3.271609887341406e-09</v>
+        <v>7.783413115221379e-13</v>
       </c>
     </row>
     <row r="86">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1289709.632444743</v>
+        <v>592.1432699817295</v>
       </c>
     </row>
     <row r="87">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-3052550.070627625</v>
+        <v>-2974.031822941737</v>
       </c>
     </row>
     <row r="88">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-473130.8104112018</v>
+        <v>-1376.164316930321</v>
       </c>
     </row>
     <row r="89">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3159787.835063812</v>
+        <v>3476.031745914252</v>
       </c>
     </row>
     <row r="90">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-2579419.260216023</v>
+        <v>-1597.865276114651</v>
       </c>
     </row>
     <row r="91">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.048909664154053e-07</v>
+        <v>-0.002919822975854913</v>
       </c>
     </row>
     <row r="92">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3052550.070627624</v>
+        <v>2974.031822941765</v>
       </c>
     </row>
     <row r="93">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-3159787.83506381</v>
+        <v>-3476.027272962277</v>
       </c>
     </row>
     <row r="94">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>5.430633336800383e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.002214047126471996</v>
+        <v>-0.01748794982813706</v>
       </c>
     </row>
     <row r="96">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.008773489855229855</v>
+        <v>-0.07463725397565213</v>
       </c>
     </row>
     <row r="97">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.0007631517946720123</v>
+        <v>-0.08349751605510392</v>
       </c>
     </row>
     <row r="98">
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.002292159013450146</v>
+        <v>0.006648768433024088</v>
       </c>
     </row>
     <row r="99">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.001128369942307472</v>
+        <v>-0.0006207008186720486</v>
       </c>
     </row>
     <row r="100">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5.215685814619064e-05</v>
+        <v>-0.008510884766565141</v>
       </c>
     </row>
     <row r="101">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-2.325326204299927e-05</v>
+        <v>0.07248442191212234</v>
       </c>
     </row>
     <row r="102">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-1.557916402816772e-05</v>
+        <v>0.07538493551783176</v>
       </c>
     </row>
     <row r="103">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1.647789031267166e-05</v>
+        <v>0.07657470764161189</v>
       </c>
     </row>
     <row r="104">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.001216303557157516</v>
+        <v>-0.009278683170123259</v>
       </c>
     </row>
     <row r="105">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-3.153365105390549e-05</v>
+        <v>-0.01069199133462462</v>
       </c>
     </row>
     <row r="106">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1.985207200050354e-05</v>
+        <v>-0.01401715714791862</v>
       </c>
     </row>
     <row r="107">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.349967300891876e-06</v>
+        <v>-0.01238054546456624</v>
       </c>
     </row>
     <row r="108">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.00235367938876152</v>
+        <v>-0.01692189849381975</v>
       </c>
     </row>
     <row r="109">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1289709.624996398</v>
+        <v>798.939456600539</v>
       </c>
     </row>
     <row r="110">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.1160508533939719</v>
+        <v>0.08043299706423568</v>
       </c>
     </row>
     <row r="111">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-6.946735084056854e-06</v>
+        <v>0.0002737765148594917</v>
       </c>
     </row>
     <row r="112">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>6.183203752363754e-05</v>
+        <v>7.782415988912241e-13</v>
       </c>
     </row>
     <row r="113">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.7905853623524308</v>
+        <v>0.005627119971450156</v>
       </c>
     </row>
     <row r="114">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>20406.5356566583</v>
+        <v>7.78267858371682e-13</v>
       </c>
     </row>
     <row r="115">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.1532297097146511</v>
+        <v>-0.3606580799305448</v>
       </c>
     </row>
     <row r="116">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1289709.624996401</v>
+        <v>798.8993528401033</v>
       </c>
     </row>
     <row r="117">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3.276664329070161e-09</v>
+        <v>5.118878377542648e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3.276664329070161e-09</v>
+        <v>6.217489097566108e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1289709.40900892</v>
+        <v>799.1201605256779</v>
       </c>
     </row>
     <row r="120">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1289711.939403409</v>
+        <v>799.2494465328705</v>
       </c>
     </row>
     <row r="121">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6.549009064788946e-15</v>
+        <v>5.430641062870111e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4.901755021986935e-10</v>
+        <v>4.572774148008401e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1.139218706453202e-10</v>
+        <v>6.925865811612337e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-9.313225746154785e-10</v>
+        <v>0.001590191690411302</v>
       </c>
     </row>
     <row r="125">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>5.032548759285612e-14</v>
+        <v>8.34940152990966e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6.252805010167452e-08</v>
+        <v>4.152588335981479e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.37806539893609e-06</v>
+        <v>0.002362414816706003</v>
       </c>
     </row>
     <row r="128">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1.617486543032998e-14</v>
+        <v>5.378659241628246e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>8.449569344593441e-07</v>
+        <v>0.005595209123912222</v>
       </c>
     </row>
     <row r="130">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7.18993016704917</v>
+        <v>0.08380772875580078</v>
       </c>
     </row>
     <row r="131">
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>37.87526451289725</v>
+        <v>8.761762309092887e-148</v>
       </c>
     </row>
     <row r="132">
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>8.612578877081034e-07</v>
+        <v>6.64434635271873e-26</v>
       </c>
     </row>
     <row r="133">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>8.66129994392395e-08</v>
+        <v>134.7976920661354</v>
       </c>
     </row>
     <row r="134">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3.343448042869568e-07</v>
+        <v>-134.7612929257043</v>
       </c>
     </row>
     <row r="135">
@@ -1775,427 +1775,557 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1.585287573603824e-06</v>
+        <v>1.269795587756354e-09</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R175 </t>
+          <t xml:space="preserve">R168 </t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>833.329608575623</v>
+        <v>-5191.313373781746</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R177 </t>
+          <t xml:space="preserve">R169 </t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1.585287573597234e-06</v>
+        <v>7592.422570889155</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R178 </t>
+          <t xml:space="preserve">R170 </t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>749.927195355477</v>
+        <v>-16744.51632305793</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R179 </t>
+          <t xml:space="preserve">R171 </t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>499.9324647466272</v>
+        <v>-1881.821240029829</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R180 </t>
+          <t xml:space="preserve">R172 </t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4213050.446746558</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R181 </t>
+          <t xml:space="preserve">R173 </t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>666.6585942159762</v>
+        <v>4592.233853988463</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R182 </t>
+          <t xml:space="preserve">R174 </t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>666.6458357662493</v>
+        <v>0.0001652853707128088</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R185 </t>
+          <t xml:space="preserve">R175 </t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>5072088.316215326</v>
+        <v>862.6497657836229</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R186 </t>
+          <t xml:space="preserve">R176 </t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>856648.544544709</v>
+        <v>2846.90957199978</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R167 </t>
+          <t xml:space="preserve">R177 </t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>666.6585942159758</v>
+        <v>1.78117621339459e-09</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R20 </t>
+          <t xml:space="preserve">R178 </t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>749.927200361155</v>
+        <v>904.2824817841197</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R21 </t>
+          <t xml:space="preserve">R179 </t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>749.9271918376908</v>
+        <v>696.58694636441</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R22 </t>
+          <t xml:space="preserve">R180 </t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>749.9271965996179</v>
+        <v>4328.926529038185</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R23 </t>
+          <t xml:space="preserve">R181 </t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>749.927196492441</v>
+        <v>982.528066695099</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R24 </t>
+          <t xml:space="preserve">R182 </t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>749.9271964943036</v>
+        <v>970.6404616538168</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R25 </t>
+          <t xml:space="preserve">R183 </t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>749.9271964970976</v>
+        <v>1122.550337474424</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R26 </t>
+          <t xml:space="preserve">R184 </t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>374.9635982998088</v>
+        <v>-2191.23612607505</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R27 </t>
+          <t xml:space="preserve">R185 </t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>499.9324647448957</v>
+        <v>0.6854405539304068</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R28 </t>
+          <t xml:space="preserve">R186 </t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1249.85966195073</v>
+        <v>184.5276192437408</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R29 </t>
+          <t xml:space="preserve">R187 </t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1249.859661941417</v>
+        <v>-1437.91458858048</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R30 </t>
+          <t xml:space="preserve">R188 </t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>999.8934290884063</v>
+        <v>1437.914804586385</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R31 </t>
+          <t xml:space="preserve">R167 </t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>999.8934286711738</v>
+        <v>982.5282215288621</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R32 </t>
+          <t xml:space="preserve">R20 </t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>999.8934286590666</v>
+        <v>904.2440819967155</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R33 </t>
+          <t xml:space="preserve">R21 </t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>999.8934290865436</v>
+        <v>904.2024436320489</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R34 </t>
+          <t xml:space="preserve">R22 </t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>999.8934286627918</v>
+        <v>904.3276357517187</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R35 </t>
+          <t xml:space="preserve">R23 </t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>999.8934286674485</v>
+        <v>904.2488816892742</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R36 </t>
+          <t xml:space="preserve">R24 </t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-999.8934286599979</v>
+        <v>904.2488816892728</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R37 </t>
+          <t xml:space="preserve">R25 </t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>6114996.780948902</v>
+        <v>904.248878533891</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R1 </t>
+          <t xml:space="preserve">R26 </t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>104.1662010719527</v>
+        <v>452.1278806961856</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t xml:space="preserve">R27 </t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>104.1662075218008</v>
+        <v>696.5869463643867</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t xml:space="preserve">R28 </t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>208.3324150436017</v>
+        <v>1600.789389996486</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t xml:space="preserve">R29 </t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>208.3324197791517</v>
+        <v>1600.789389996472</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t xml:space="preserve">R30 </t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>34.72206917684525</v>
+        <v>1252.543098329869</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t xml:space="preserve">R31 </t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>34.72206917591393</v>
+        <v>1252.541613937379</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>R7</t>
+          <t xml:space="preserve">R32 </t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>34.72206917591393</v>
+        <v>1252.556608573926</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>R8</t>
+          <t xml:space="preserve">R33 </t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>34.72206918150187</v>
+        <v>1252.543001279787</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t xml:space="preserve">R34 </t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>34.72206918429583</v>
+        <v>1252.556586283558</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t xml:space="preserve">R35 </t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>34.72206917405128</v>
+        <v>1252.557271792636</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>R11</t>
+          <t xml:space="preserve">R36 </t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>69.4441383369267</v>
+        <v>-1252.556421174587</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t xml:space="preserve">R37 </t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>34.72206917684525</v>
+        <v>5020.036143597189</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>R13</t>
+          <t xml:space="preserve">R1 </t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>104.1662075218007</v>
+        <v>107.8312154269706</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>107.8309547696663</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>215.6619128262297</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>215.6630744732556</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>35.94340793597758</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>35.94340793598349</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>R7</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>35.94362550492224</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>R8</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>35.94354104333843</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>35.94378518617077</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>35.94370679566691</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>R11</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>71.88724795117741</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>35.94370678460791</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>R13</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>107.8309582255662</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
           <t>R14</t>
         </is>
       </c>
-      <c r="B177" t="n">
-        <v>34.7220799960196</v>
+      <c r="B189" t="n">
+        <v>35.94640125458545</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RNADP </t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>7.782654579955243e-13</v>
       </c>
     </row>
   </sheetData>
